--- a/document/All/Templates_SonNT.xlsx
+++ b/document/All/Templates_SonNT.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20340" windowHeight="7935" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="20340" windowHeight="7875" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Thong tin SV" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,15 @@
     <sheet name="Hoc phi" sheetId="3" r:id="rId3"/>
     <sheet name="Bang ke thu hoc phi" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="159">
   <si>
     <t>STT</t>
   </si>
@@ -495,17 +498,20 @@
   </si>
   <si>
     <t>TPBank</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -824,116 +830,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -950,23 +866,23 @@
     <xf numFmtId="49" fontId="9" fillId="7" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -974,24 +890,114 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="8" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="9" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1000,7 +1006,7 @@
     <cellStyle name="Comma 3" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="5">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1039,42 +1045,38 @@
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFD7D7D7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1153,6 +1155,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1187,6 +1190,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1362,17 +1366,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
@@ -1387,7 +1391,7 @@
     <col min="11" max="11" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="15">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1422,7 +1426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1442,7 +1446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1462,7 +1466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1488,21 +1492,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="15">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1513,7 +1517,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1524,7 +1528,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1535,7 +1539,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1546,7 +1550,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1557,7 +1561,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1568,7 +1572,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1579,7 +1583,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1590,7 +1594,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1601,7 +1605,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1612,7 +1616,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1623,7 +1627,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1634,7 +1638,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1645,7 +1649,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1663,14 +1667,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -1680,7 +1684,7 @@
     <col min="6" max="6" width="25.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1700,7 +1704,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1720,7 +1724,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1740,7 +1744,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1760,7 +1764,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1780,7 +1784,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1800,7 +1804,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1820,7 +1824,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1840,7 +1844,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1860,7 +1864,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1880,7 +1884,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1900,7 +1904,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1920,7 +1924,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1940,7 +1944,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1960,7 +1964,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1980,7 +1984,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2000,7 +2004,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2020,7 +2024,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2040,7 +2044,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2060,7 +2064,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2080,7 +2084,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2100,7 +2104,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2120,7 +2124,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2140,7 +2144,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2160,7 +2164,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2180,7 +2184,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2200,7 +2204,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2217,7 +2221,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2234,7 +2238,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2251,7 +2255,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2274,364 +2278,375 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="11.875" customWidth="1"/>
     <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
     <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.75" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13" customWidth="1"/>
     <col min="22" max="22" width="13.25" customWidth="1"/>
     <col min="23" max="23" width="9.125" customWidth="1"/>
-    <col min="24" max="24" width="11.25" customWidth="1"/>
+    <col min="24" max="24" width="15.625" customWidth="1"/>
     <col min="27" max="27" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="18" t="s">
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Y1" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="24" t="s">
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15" thickBot="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33" t="s">
+    <row r="2" spans="1:27" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="P2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="S2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="35"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="40" t="s">
+      <c r="T2" s="48"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="Z2" s="40" t="s">
+      <c r="Z2" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="AA2" s="41" t="s">
+      <c r="AA2" s="11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="42">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44" t="s">
+      <c r="B3" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="47" t="s">
+      <c r="H3" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="M3" s="49">
+      <c r="M3" s="19">
         <v>24200000</v>
       </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="51">
+      <c r="N3" s="20"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="S3" s="20"/>
+      <c r="T3" s="21">
         <f>+M3-SUM(N3:S3)</f>
         <v>24200000</v>
       </c>
-      <c r="U3" s="52"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="53">
+      <c r="U3" s="22"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="23">
         <f>U3+V3-W3</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="54">
+      <c r="Y3" s="24">
         <f t="shared" ref="Y3:Y6" si="0">IF(X3&gt;T3,X3-T3,0)</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="54">
+      <c r="Z3" s="24">
         <f t="shared" ref="Z3:Z6" si="1">IF(X3&lt;T3,T3-X3,0)</f>
         <v>24200000</v>
       </c>
-      <c r="AA3" s="55"/>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="42">
+      <c r="AA3" s="25"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="56" t="s">
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="L4" s="49" t="s">
+      <c r="L4" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="19">
         <v>24200000</v>
       </c>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="51">
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="21">
         <f t="shared" ref="T4:T6" si="2">+M4-SUM(N4:S4)</f>
         <v>24200000</v>
       </c>
-      <c r="U4" s="52"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="53">
-        <f t="shared" ref="X3:X6" si="3">U4+V4-W4</f>
+      <c r="U4" s="22"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="23">
+        <f t="shared" ref="X4:X6" si="3">U4+V4-W4</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="54">
+      <c r="Y4" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z4" s="54">
+      <c r="Z4" s="24">
         <f t="shared" si="1"/>
         <v>24200000</v>
       </c>
-      <c r="AA4" s="61"/>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="A5" s="42">
+      <c r="AA4" s="31"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="62" t="s">
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="M5" s="49">
+      <c r="M5" s="19">
         <v>24200000</v>
       </c>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="51">
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="21">
         <f t="shared" si="2"/>
         <v>24200000</v>
       </c>
-      <c r="U5" s="52"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="53">
+      <c r="U5" s="22"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="54">
+      <c r="Y5" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="54">
+      <c r="Z5" s="24">
         <f t="shared" si="1"/>
         <v>24200000</v>
       </c>
-      <c r="AA5" s="61"/>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="42">
+      <c r="AA5" s="31"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="G6" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="62" t="s">
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="L6" s="49" t="s">
+      <c r="L6" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="19">
         <v>24200000</v>
       </c>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="51">
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="21">
         <f t="shared" si="2"/>
         <v>24200000</v>
       </c>
-      <c r="U6" s="52"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="53">
+      <c r="U6" s="22"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="54">
+      <c r="Y6" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="54">
+      <c r="Z6" s="24">
         <f t="shared" si="1"/>
         <v>24200000</v>
       </c>
-      <c r="AA6" s="61"/>
+      <c r="AA6" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -2649,12 +2664,12 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:G6">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
